--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.434811333333333</v>
+        <v>1.255104666666667</v>
       </c>
       <c r="N2">
-        <v>4.304434000000001</v>
+        <v>3.765314</v>
       </c>
       <c r="O2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
       <c r="P2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
       <c r="Q2">
-        <v>0.2262290942788889</v>
+        <v>0.1978944446344445</v>
       </c>
       <c r="R2">
-        <v>2.03606184851</v>
+        <v>1.78105000171</v>
       </c>
       <c r="S2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
       <c r="T2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +623,22 @@
         <v>8.582275000000001</v>
       </c>
       <c r="O3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
       <c r="P3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
       <c r="Q3">
-        <v>0.4510605343472222</v>
+        <v>0.4510605343472223</v>
       </c>
       <c r="R3">
-        <v>4.059544809125</v>
+        <v>4.059544809125001</v>
       </c>
       <c r="S3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
       <c r="T3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.321735333333333</v>
+        <v>8.752828666666668</v>
       </c>
       <c r="N4">
-        <v>9.965206</v>
+        <v>26.258486</v>
       </c>
       <c r="O4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
       <c r="P4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
       <c r="Q4">
-        <v>0.5237435462322222</v>
+        <v>1.380073083921111</v>
       </c>
       <c r="R4">
-        <v>4.71369191609</v>
+        <v>12.42065775529</v>
       </c>
       <c r="S4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
       <c r="T4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.339489666666667</v>
+        <v>2.299023666666667</v>
       </c>
       <c r="N5">
-        <v>7.018469000000001</v>
+        <v>6.897071</v>
       </c>
       <c r="O5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
       <c r="P5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
       <c r="Q5">
-        <v>0.3688712348927777</v>
+        <v>0.3624908932294445</v>
       </c>
       <c r="R5">
-        <v>3.319841114035</v>
+        <v>3.262418039065</v>
       </c>
       <c r="S5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
       <c r="T5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
     </row>
   </sheetData>
